--- a/BusinessRisks.xlsx
+++ b/BusinessRisks.xlsx
@@ -1058,22 +1058,29 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color theme="10"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1081,20 +1088,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1392,2775 +1410,2781 @@
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="40.7109375" customWidth="1"/>
+    <col min="2" max="2" width="100.7109375" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" customWidth="1"/>
+    <col min="4" max="6" width="40.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="C3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" t="s">
+      <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="C4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" t="s">
+      <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="C5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" t="s">
+      <c r="A6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="C6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" t="s">
+      <c r="A7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="C7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" t="s">
+      <c r="A8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="C8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" t="s">
+      <c r="A9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="C9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" t="s">
+      <c r="A10" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="C10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" t="s">
+      <c r="A11" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="C11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" t="s">
+      <c r="A12" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="C12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" t="s">
+      <c r="A13" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="C13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" t="s">
+      <c r="A14" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="C14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" t="s">
+      <c r="A15" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="C15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" t="s">
+      <c r="A16" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C16" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16" t="s">
+      <c r="C16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" t="s">
+      <c r="A17" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C17" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="C17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" t="s">
+      <c r="A18" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C18" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="C18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" t="s">
+      <c r="A19" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C19" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19" t="s">
+      <c r="C19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" t="s">
+      <c r="A20" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C20" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" t="s">
-        <v>14</v>
-      </c>
-      <c r="E20" t="s">
+      <c r="C20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" t="s">
+      <c r="A21" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="C21" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" t="s">
+      <c r="A22" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C22" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="C22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" t="s">
+      <c r="A23" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C23" t="s">
-        <v>7</v>
-      </c>
-      <c r="D23" t="s">
+      <c r="C23" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" t="s">
+      <c r="A24" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C24" t="s">
-        <v>7</v>
-      </c>
-      <c r="D24" t="s">
+      <c r="C24" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" t="s">
+      <c r="A25" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C25" t="s">
-        <v>7</v>
-      </c>
-      <c r="D25" t="s">
-        <v>8</v>
-      </c>
-      <c r="E25" t="s">
+      <c r="C25" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" t="s">
+      <c r="A26" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C26" t="s">
-        <v>7</v>
-      </c>
-      <c r="D26" t="s">
+      <c r="C26" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" t="s">
+      <c r="A27" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C27" t="s">
-        <v>7</v>
-      </c>
-      <c r="D27" t="s">
+      <c r="C27" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" t="s">
+      <c r="A28" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C28" t="s">
-        <v>7</v>
-      </c>
-      <c r="D28" t="s">
-        <v>8</v>
-      </c>
-      <c r="E28" t="s">
+      <c r="C28" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" t="s">
+      <c r="A29" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C29" t="s">
-        <v>7</v>
-      </c>
-      <c r="D29" t="s">
+      <c r="C29" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" s="2" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" t="s">
+      <c r="A30" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C30" t="s">
-        <v>7</v>
-      </c>
-      <c r="D30" t="s">
+      <c r="C30" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" t="s">
+      <c r="A31" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C31" t="s">
-        <v>7</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="C31" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E31" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" t="s">
+      <c r="A32" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C32" t="s">
-        <v>7</v>
-      </c>
-      <c r="D32" t="s">
-        <v>14</v>
-      </c>
-      <c r="E32" t="s">
+      <c r="C32" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" t="s">
+      <c r="A33" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C33" t="s">
-        <v>7</v>
-      </c>
-      <c r="D33" t="s">
-        <v>8</v>
-      </c>
-      <c r="E33" t="s">
+      <c r="C33" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" t="s">
+      <c r="A34" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C34" t="s">
-        <v>7</v>
-      </c>
-      <c r="D34" t="s">
-        <v>8</v>
-      </c>
-      <c r="E34" t="s">
+      <c r="C34" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" t="s">
+      <c r="A35" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C35" t="s">
-        <v>7</v>
-      </c>
-      <c r="D35" t="s">
+      <c r="C35" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E35" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" t="s">
+      <c r="A36" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C36" t="s">
-        <v>7</v>
-      </c>
-      <c r="D36" t="s">
-        <v>8</v>
-      </c>
-      <c r="E36" t="s">
+      <c r="C36" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" t="s">
+      <c r="A37" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C37" t="s">
-        <v>7</v>
-      </c>
-      <c r="D37" t="s">
+      <c r="C37" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E37" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" t="s">
+      <c r="A38" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C38" t="s">
-        <v>7</v>
-      </c>
-      <c r="D38" t="s">
+      <c r="C38" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E38" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" t="s">
+      <c r="A39" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C39" t="s">
-        <v>7</v>
-      </c>
-      <c r="D39" t="s">
-        <v>14</v>
-      </c>
-      <c r="E39" t="s">
+      <c r="C39" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" t="s">
+      <c r="A40" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C40" t="s">
-        <v>7</v>
-      </c>
-      <c r="D40" t="s">
+      <c r="C40" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D40" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E40" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" t="s">
+      <c r="A41" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C41" t="s">
-        <v>7</v>
-      </c>
-      <c r="D41" t="s">
-        <v>8</v>
-      </c>
-      <c r="E41" t="s">
+      <c r="C41" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" t="s">
+      <c r="A42" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C42" t="s">
-        <v>7</v>
-      </c>
-      <c r="D42" t="s">
-        <v>8</v>
-      </c>
-      <c r="E42" t="s">
+      <c r="C42" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" t="s">
+      <c r="A43" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C43" t="s">
-        <v>7</v>
-      </c>
-      <c r="D43" t="s">
-        <v>8</v>
-      </c>
-      <c r="E43" t="s">
+      <c r="C43" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" t="s">
+      <c r="A44" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B44" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C44" t="s">
-        <v>7</v>
-      </c>
-      <c r="D44" t="s">
-        <v>8</v>
-      </c>
-      <c r="E44" t="s">
+      <c r="C44" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" t="s">
+      <c r="A45" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B45" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C45" t="s">
-        <v>7</v>
-      </c>
-      <c r="D45" t="s">
+      <c r="C45" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D45" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E45" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" t="s">
+      <c r="A46" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B46" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C46" t="s">
-        <v>7</v>
-      </c>
-      <c r="D46" t="s">
+      <c r="C46" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D46" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E46" t="s">
+      <c r="E46" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" t="s">
+      <c r="A47" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B47" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D47" t="s">
-        <v>8</v>
-      </c>
-      <c r="E47" t="s">
+      <c r="D47" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" t="s">
+      <c r="A48" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B48" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D48" t="s">
-        <v>8</v>
-      </c>
-      <c r="E48" t="s">
+      <c r="D48" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49" t="s">
+      <c r="A49" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B49" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D49" t="s">
-        <v>8</v>
-      </c>
-      <c r="E49" t="s">
+      <c r="D49" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" t="s">
+      <c r="A50" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B50" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D50" t="s">
-        <v>14</v>
-      </c>
-      <c r="E50" t="s">
+      <c r="D50" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" t="s">
+      <c r="A51" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B51" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D51" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E51" s="2" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" t="s">
+      <c r="A52" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B52" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D52" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E52" t="s">
+      <c r="E52" s="2" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53" t="s">
+      <c r="A53" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B53" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D53" t="s">
-        <v>14</v>
-      </c>
-      <c r="E53" t="s">
+      <c r="D53" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E53" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="54" spans="1:5">
-      <c r="A54" t="s">
+      <c r="A54" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B54" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D54" t="s">
-        <v>14</v>
-      </c>
-      <c r="E54" t="s">
+      <c r="D54" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="55" spans="1:5">
-      <c r="A55" t="s">
+      <c r="A55" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B55" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C55" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D55" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E55" t="s">
+      <c r="E55" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56" t="s">
+      <c r="A56" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B56" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D56" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E56" t="s">
+      <c r="E56" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57" t="s">
+      <c r="A57" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B57" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C57" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D57" t="s">
-        <v>8</v>
-      </c>
-      <c r="E57" t="s">
+      <c r="D57" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E57" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="58" spans="1:5">
-      <c r="A58" t="s">
+      <c r="A58" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B58" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C58" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D58" t="s">
-        <v>8</v>
-      </c>
-      <c r="E58" t="s">
+      <c r="D58" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E58" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59" t="s">
+      <c r="A59" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B59" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D59" t="s">
-        <v>8</v>
-      </c>
-      <c r="E59" t="s">
+      <c r="D59" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E59" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="60" spans="1:5">
-      <c r="A60" t="s">
+      <c r="A60" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B60" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D60" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E60" t="s">
+      <c r="E60" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="61" spans="1:5">
-      <c r="A61" t="s">
+      <c r="A61" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B61" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C61" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D61" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E61" t="s">
+      <c r="E61" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="62" spans="1:5">
-      <c r="A62" t="s">
+      <c r="A62" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B62" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C62" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D62" t="s">
-        <v>8</v>
-      </c>
-      <c r="E62" t="s">
+      <c r="D62" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E62" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="63" spans="1:5">
-      <c r="A63" t="s">
+      <c r="A63" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B63" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C63" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D63" t="s">
-        <v>14</v>
-      </c>
-      <c r="E63" t="s">
+      <c r="D63" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E63" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="64" spans="1:5">
-      <c r="A64" t="s">
+      <c r="A64" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="B64" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C64" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D64" t="s">
-        <v>14</v>
-      </c>
-      <c r="E64" t="s">
+      <c r="D64" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E64" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="65" spans="1:5">
-      <c r="A65" t="s">
+      <c r="A65" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B65" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C65" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D65" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E65" t="s">
+      <c r="E65" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="66" spans="1:5">
-      <c r="A66" t="s">
+      <c r="A66" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="B66" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C66" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D66" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E66" t="s">
+      <c r="E66" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="67" spans="1:5">
-      <c r="A67" t="s">
+      <c r="A67" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="B67" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C67" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D67" t="s">
-        <v>14</v>
-      </c>
-      <c r="E67" t="s">
+      <c r="D67" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E67" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="68" spans="1:5">
-      <c r="A68" t="s">
+      <c r="A68" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="B68" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C68" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D68" t="s">
+      <c r="D68" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E68" t="s">
+      <c r="E68" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="69" spans="1:5">
-      <c r="A69" t="s">
+      <c r="A69" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="B69" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C69" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D69" t="s">
+      <c r="D69" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E69" t="s">
+      <c r="E69" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="70" spans="1:5">
-      <c r="A70" t="s">
+      <c r="A70" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="B70" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C70" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D70" t="s">
-        <v>14</v>
-      </c>
-      <c r="E70" t="s">
+      <c r="D70" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E70" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="71" spans="1:5">
-      <c r="A71" t="s">
+      <c r="A71" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="B71" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C71" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D71" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="E71" t="s">
+      <c r="E71" s="2" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="72" spans="1:5">
-      <c r="A72" t="s">
+      <c r="A72" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="B72" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C72" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D72" t="s">
+      <c r="D72" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E72" t="s">
+      <c r="E72" s="2" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="73" spans="1:5">
-      <c r="A73" t="s">
+      <c r="A73" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="B73" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C73" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D73" t="s">
+      <c r="D73" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E73" t="s">
+      <c r="E73" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="74" spans="1:5">
-      <c r="A74" t="s">
+      <c r="A74" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="B74" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C74" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="D74" t="s">
+      <c r="D74" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E74" t="s">
+      <c r="E74" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="75" spans="1:5">
-      <c r="A75" t="s">
+      <c r="A75" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="B75" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C75" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="D75" t="s">
+      <c r="D75" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="E75" t="s">
+      <c r="E75" s="2" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="76" spans="1:5">
-      <c r="A76" t="s">
+      <c r="A76" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="B76" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C76" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="D76" t="s">
-        <v>8</v>
-      </c>
-      <c r="E76" t="s">
+      <c r="D76" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E76" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="77" spans="1:5">
-      <c r="A77" t="s">
+      <c r="A77" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="B77" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C77" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="D77" t="s">
-        <v>8</v>
-      </c>
-      <c r="E77" t="s">
+      <c r="D77" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E77" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="78" spans="1:5">
-      <c r="A78" t="s">
+      <c r="A78" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="B78" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C78" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="D78" t="s">
-        <v>14</v>
-      </c>
-      <c r="E78" t="s">
+      <c r="D78" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E78" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="79" spans="1:5">
-      <c r="A79" t="s">
+      <c r="A79" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="B79" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C79" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="D79" t="s">
+      <c r="D79" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E79" t="s">
+      <c r="E79" s="2" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="80" spans="1:5">
-      <c r="A80" t="s">
+      <c r="A80" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="B80" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C80" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="D80" t="s">
-        <v>14</v>
-      </c>
-      <c r="E80" t="s">
+      <c r="D80" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E80" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="81" spans="1:5">
-      <c r="A81" t="s">
+      <c r="A81" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="B81" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C81" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="D81" t="s">
+      <c r="D81" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E81" t="s">
+      <c r="E81" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="82" spans="1:5">
-      <c r="A82" t="s">
+      <c r="A82" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="B82" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C82" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="D82" t="s">
+      <c r="D82" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="E82" t="s">
+      <c r="E82" s="2" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="83" spans="1:5">
-      <c r="A83" t="s">
+      <c r="A83" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="B83" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C83" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="D83" t="s">
+      <c r="D83" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E83" t="s">
+      <c r="E83" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="84" spans="1:5">
-      <c r="A84" t="s">
+      <c r="A84" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="B84" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C84" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="D84" t="s">
+      <c r="D84" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E84" t="s">
+      <c r="E84" s="2" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="85" spans="1:5">
-      <c r="A85" t="s">
+      <c r="A85" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="B85" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C85" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="D85" t="s">
-        <v>8</v>
-      </c>
-      <c r="E85" t="s">
+      <c r="D85" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E85" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="86" spans="1:5">
-      <c r="A86" t="s">
+      <c r="A86" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="B86" s="1" t="s">
+      <c r="B86" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C86" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="D86" t="s">
-        <v>8</v>
-      </c>
-      <c r="E86" t="s">
+      <c r="D86" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E86" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="87" spans="1:5">
-      <c r="A87" t="s">
+      <c r="A87" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="B87" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C87" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="D87" t="s">
+      <c r="D87" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E87" t="s">
+      <c r="E87" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="88" spans="1:5">
-      <c r="A88" t="s">
+      <c r="A88" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="B88" s="1" t="s">
+      <c r="B88" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C88" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="D88" t="s">
-        <v>8</v>
-      </c>
-      <c r="E88" t="s">
+      <c r="D88" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E88" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="89" spans="1:5">
-      <c r="A89" t="s">
+      <c r="A89" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="B89" s="1" t="s">
+      <c r="B89" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C89" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="D89" t="s">
+      <c r="D89" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="E89" t="s">
+      <c r="E89" s="2" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="90" spans="1:5">
-      <c r="A90" t="s">
+      <c r="A90" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B90" s="1" t="s">
+      <c r="B90" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="C90" t="s">
+      <c r="C90" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="D90" t="s">
+      <c r="D90" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E90" t="s">
+      <c r="E90" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="91" spans="1:5">
-      <c r="A91" t="s">
+      <c r="A91" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="B91" s="1" t="s">
+      <c r="B91" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="C91" t="s">
+      <c r="C91" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="D91" t="s">
+      <c r="D91" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E91" t="s">
+      <c r="E91" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="92" spans="1:5">
-      <c r="A92" t="s">
+      <c r="A92" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="B92" s="1" t="s">
+      <c r="B92" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C92" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="D92" t="s">
-        <v>14</v>
-      </c>
-      <c r="E92" t="s">
+      <c r="D92" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E92" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="93" spans="1:5">
-      <c r="A93" t="s">
+      <c r="A93" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="B93" s="1" t="s">
+      <c r="B93" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="C93" t="s">
+      <c r="C93" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="D93" t="s">
+      <c r="D93" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E93" t="s">
+      <c r="E93" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="94" spans="1:5">
-      <c r="A94" t="s">
+      <c r="A94" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="B94" s="1" t="s">
+      <c r="B94" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="C94" t="s">
+      <c r="C94" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="D94" t="s">
+      <c r="D94" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="E94" t="s">
+      <c r="E94" s="2" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="95" spans="1:5">
-      <c r="A95" t="s">
+      <c r="A95" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="B95" s="1" t="s">
+      <c r="B95" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="C95" t="s">
+      <c r="C95" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="D95" t="s">
+      <c r="D95" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="E95" t="s">
+      <c r="E95" s="2" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="96" spans="1:5">
-      <c r="A96" t="s">
+      <c r="A96" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="B96" s="1" t="s">
+      <c r="B96" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="C96" t="s">
+      <c r="C96" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="D96" t="s">
-        <v>8</v>
-      </c>
-      <c r="E96" t="s">
+      <c r="D96" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E96" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="97" spans="1:5">
-      <c r="A97" t="s">
+      <c r="A97" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="B97" s="1" t="s">
+      <c r="B97" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="C97" t="s">
+      <c r="C97" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="D97" t="s">
+      <c r="D97" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="E97" t="s">
+      <c r="E97" s="2" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="98" spans="1:5">
-      <c r="A98" t="s">
+      <c r="A98" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="B98" s="1" t="s">
+      <c r="B98" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="C98" t="s">
+      <c r="C98" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="D98" t="s">
+      <c r="D98" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E98" t="s">
+      <c r="E98" s="2" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="99" spans="1:5">
-      <c r="A99" t="s">
+      <c r="A99" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="B99" s="1" t="s">
+      <c r="B99" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="C99" t="s">
+      <c r="C99" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="D99" t="s">
+      <c r="D99" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E99" t="s">
+      <c r="E99" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="100" spans="1:5">
-      <c r="A100" t="s">
+      <c r="A100" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="B100" s="1" t="s">
+      <c r="B100" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="C100" t="s">
+      <c r="C100" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="D100" t="s">
-        <v>14</v>
-      </c>
-      <c r="E100" t="s">
+      <c r="D100" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E100" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="101" spans="1:5">
-      <c r="A101" t="s">
+      <c r="A101" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="B101" s="1" t="s">
+      <c r="B101" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="C101" t="s">
+      <c r="C101" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="D101" t="s">
-        <v>8</v>
-      </c>
-      <c r="E101" t="s">
+      <c r="D101" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E101" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="102" spans="1:5">
-      <c r="A102" t="s">
+      <c r="A102" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="B102" s="1" t="s">
+      <c r="B102" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="C102" t="s">
+      <c r="C102" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="D102" t="s">
-        <v>14</v>
-      </c>
-      <c r="E102" t="s">
+      <c r="D102" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E102" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="103" spans="1:5">
-      <c r="A103" t="s">
+      <c r="A103" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="B103" s="1" t="s">
+      <c r="B103" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="C103" t="s">
+      <c r="C103" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="D103" t="s">
-        <v>14</v>
-      </c>
-      <c r="E103" t="s">
+      <c r="D103" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E103" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="104" spans="1:5">
-      <c r="A104" t="s">
+      <c r="A104" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="B104" s="1" t="s">
+      <c r="B104" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="C104" t="s">
+      <c r="C104" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="D104" t="s">
-        <v>14</v>
-      </c>
-      <c r="E104" t="s">
+      <c r="D104" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E104" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="105" spans="1:5">
-      <c r="A105" t="s">
+      <c r="A105" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="B105" s="1" t="s">
+      <c r="B105" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="C105" t="s">
+      <c r="C105" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="D105" t="s">
-        <v>8</v>
-      </c>
-      <c r="E105" t="s">
+      <c r="D105" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E105" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="106" spans="1:5">
-      <c r="A106" t="s">
+      <c r="A106" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="B106" s="1" t="s">
+      <c r="B106" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="C106" t="s">
+      <c r="C106" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="D106" t="s">
-        <v>8</v>
-      </c>
-      <c r="E106" t="s">
+      <c r="D106" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E106" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="107" spans="1:5">
-      <c r="A107" t="s">
+      <c r="A107" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="B107" s="1" t="s">
+      <c r="B107" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="C107" t="s">
+      <c r="C107" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="D107" t="s">
-        <v>14</v>
-      </c>
-      <c r="E107" t="s">
+      <c r="D107" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E107" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="108" spans="1:5">
-      <c r="A108" t="s">
+      <c r="A108" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="B108" s="1" t="s">
+      <c r="B108" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="C108" t="s">
+      <c r="C108" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="D108" t="s">
+      <c r="D108" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E108" t="s">
+      <c r="E108" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="109" spans="1:5">
-      <c r="A109" t="s">
+      <c r="A109" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="B109" s="1" t="s">
+      <c r="B109" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="C109" t="s">
+      <c r="C109" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="D109" t="s">
+      <c r="D109" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E109" t="s">
+      <c r="E109" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="110" spans="1:5">
-      <c r="A110" t="s">
+      <c r="A110" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="B110" s="1" t="s">
+      <c r="B110" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="C110" t="s">
+      <c r="C110" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="D110" t="s">
-        <v>8</v>
-      </c>
-      <c r="E110" t="s">
+      <c r="D110" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E110" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="111" spans="1:5">
-      <c r="A111" t="s">
+      <c r="A111" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="B111" s="1" t="s">
+      <c r="B111" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="C111" t="s">
+      <c r="C111" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="D111" t="s">
-        <v>14</v>
-      </c>
-      <c r="E111" t="s">
+      <c r="D111" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E111" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="112" spans="1:5">
-      <c r="A112" t="s">
+      <c r="A112" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="B112" s="1" t="s">
+      <c r="B112" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="C112" t="s">
+      <c r="C112" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="D112" t="s">
-        <v>8</v>
-      </c>
-      <c r="E112" t="s">
+      <c r="D112" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E112" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="113" spans="1:5">
-      <c r="A113" t="s">
+      <c r="A113" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="B113" s="1" t="s">
+      <c r="B113" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="C113" t="s">
+      <c r="C113" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="D113" t="s">
+      <c r="D113" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="E113" t="s">
+      <c r="E113" s="2" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="114" spans="1:5">
-      <c r="A114" t="s">
+      <c r="A114" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="B114" s="1" t="s">
+      <c r="B114" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="C114" t="s">
+      <c r="C114" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="D114" t="s">
-        <v>8</v>
-      </c>
-      <c r="E114" t="s">
+      <c r="D114" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E114" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="115" spans="1:5">
-      <c r="A115" t="s">
+      <c r="A115" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="B115" s="1" t="s">
+      <c r="B115" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="C115" t="s">
+      <c r="C115" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="D115" t="s">
+      <c r="D115" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="E115" t="s">
+      <c r="E115" s="2" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="116" spans="1:5">
-      <c r="A116" t="s">
+      <c r="A116" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="B116" s="1" t="s">
+      <c r="B116" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="C116" t="s">
+      <c r="C116" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="D116" t="s">
-        <v>8</v>
-      </c>
-      <c r="E116" t="s">
+      <c r="D116" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E116" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="117" spans="1:5">
-      <c r="A117" t="s">
+      <c r="A117" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="B117" s="1" t="s">
+      <c r="B117" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="C117" t="s">
+      <c r="C117" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="D117" t="s">
+      <c r="D117" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E117" t="s">
+      <c r="E117" s="2" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="118" spans="1:5">
-      <c r="A118" t="s">
+      <c r="A118" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="B118" s="1" t="s">
+      <c r="B118" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="C118" t="s">
+      <c r="C118" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="D118" t="s">
+      <c r="D118" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E118" t="s">
+      <c r="E118" s="2" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="119" spans="1:5">
-      <c r="A119" t="s">
+      <c r="A119" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="B119" s="1" t="s">
+      <c r="B119" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="C119" t="s">
+      <c r="C119" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="D119" t="s">
+      <c r="D119" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E119" t="s">
+      <c r="E119" s="2" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="120" spans="1:5">
-      <c r="A120" t="s">
+      <c r="A120" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="B120" s="1" t="s">
+      <c r="B120" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="C120" t="s">
+      <c r="C120" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="D120" t="s">
+      <c r="D120" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E120" t="s">
+      <c r="E120" s="2" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="121" spans="1:5">
-      <c r="A121" t="s">
+      <c r="A121" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="B121" s="1" t="s">
+      <c r="B121" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="C121" t="s">
+      <c r="C121" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="D121" t="s">
+      <c r="D121" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="E121" t="s">
+      <c r="E121" s="2" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="122" spans="1:5">
-      <c r="A122" t="s">
+      <c r="A122" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="B122" s="1" t="s">
+      <c r="B122" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="C122" t="s">
+      <c r="C122" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="D122" t="s">
+      <c r="D122" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="E122" t="s">
+      <c r="E122" s="2" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="123" spans="1:5">
-      <c r="A123" t="s">
+      <c r="A123" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="B123" s="1" t="s">
+      <c r="B123" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="C123" t="s">
+      <c r="C123" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="D123" t="s">
+      <c r="D123" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="E123" t="s">
+      <c r="E123" s="2" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="124" spans="1:5">
-      <c r="A124" t="s">
+      <c r="A124" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="B124" s="1" t="s">
+      <c r="B124" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="C124" t="s">
+      <c r="C124" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="D124" t="s">
+      <c r="D124" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="E124" t="s">
+      <c r="E124" s="2" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="125" spans="1:5">
-      <c r="A125" t="s">
+      <c r="A125" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="B125" s="1" t="s">
+      <c r="B125" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="C125" t="s">
+      <c r="C125" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="D125" t="s">
+      <c r="D125" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="E125" t="s">
+      <c r="E125" s="2" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="126" spans="1:5">
-      <c r="A126" t="s">
+      <c r="A126" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="B126" s="1" t="s">
+      <c r="B126" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="C126" t="s">
+      <c r="C126" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="D126" t="s">
-        <v>14</v>
-      </c>
-      <c r="E126" t="s">
+      <c r="D126" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E126" s="2" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="127" spans="1:5">
-      <c r="A127" t="s">
+      <c r="A127" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="B127" s="1" t="s">
+      <c r="B127" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="C127" t="s">
+      <c r="C127" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="D127" t="s">
+      <c r="D127" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E127" t="s">
+      <c r="E127" s="2" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="128" spans="1:5">
-      <c r="A128" t="s">
+      <c r="A128" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="B128" s="1" t="s">
+      <c r="B128" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="C128" t="s">
+      <c r="C128" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="D128" t="s">
+      <c r="D128" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E128" t="s">
+      <c r="E128" s="2" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="129" spans="1:5">
-      <c r="A129" t="s">
+      <c r="A129" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="B129" s="1" t="s">
+      <c r="B129" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="C129" t="s">
+      <c r="C129" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="D129" t="s">
+      <c r="D129" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E129" t="s">
+      <c r="E129" s="2" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="130" spans="1:5">
-      <c r="A130" t="s">
+      <c r="A130" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="B130" s="1" t="s">
+      <c r="B130" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="C130" t="s">
+      <c r="C130" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="D130" t="s">
+      <c r="D130" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E130" t="s">
+      <c r="E130" s="2" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="131" spans="1:5">
-      <c r="A131" t="s">
+      <c r="A131" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="B131" s="1" t="s">
+      <c r="B131" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="C131" t="s">
+      <c r="C131" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="D131" t="s">
+      <c r="D131" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E131" t="s">
+      <c r="E131" s="2" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="132" spans="1:5">
-      <c r="A132" t="s">
+      <c r="A132" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="B132" s="1" t="s">
+      <c r="B132" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="C132" t="s">
+      <c r="C132" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="D132" t="s">
+      <c r="D132" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E132" t="s">
+      <c r="E132" s="2" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="133" spans="1:5">
-      <c r="A133" t="s">
+      <c r="A133" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="B133" s="1" t="s">
+      <c r="B133" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="C133" t="s">
+      <c r="C133" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="D133" t="s">
+      <c r="D133" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="E133" t="s">
+      <c r="E133" s="2" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="134" spans="1:5">
-      <c r="A134" t="s">
+      <c r="A134" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="B134" s="1" t="s">
+      <c r="B134" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="C134" t="s">
+      <c r="C134" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="D134" t="s">
+      <c r="D134" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="E134" t="s">
+      <c r="E134" s="2" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="135" spans="1:5">
-      <c r="A135" t="s">
+      <c r="A135" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="B135" s="1" t="s">
+      <c r="B135" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="C135" t="s">
+      <c r="C135" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="D135" t="s">
-        <v>14</v>
-      </c>
-      <c r="E135" t="s">
+      <c r="D135" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E135" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="136" spans="1:5">
-      <c r="A136" t="s">
+      <c r="A136" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="B136" s="1" t="s">
+      <c r="B136" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="C136" t="s">
+      <c r="C136" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="D136" t="s">
+      <c r="D136" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="E136" t="s">
+      <c r="E136" s="2" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="137" spans="1:5">
-      <c r="A137" t="s">
+      <c r="A137" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="B137" s="1" t="s">
+      <c r="B137" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="C137" t="s">
+      <c r="C137" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="D137" t="s">
-        <v>14</v>
-      </c>
-      <c r="E137" t="s">
+      <c r="D137" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E137" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="138" spans="1:5">
-      <c r="A138" t="s">
+      <c r="A138" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="B138" s="1" t="s">
+      <c r="B138" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="C138" t="s">
+      <c r="C138" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="D138" t="s">
+      <c r="D138" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="E138" t="s">
+      <c r="E138" s="2" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="139" spans="1:5">
-      <c r="A139" t="s">
+      <c r="A139" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="B139" s="1" t="s">
+      <c r="B139" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="C139" t="s">
+      <c r="C139" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="D139" t="s">
+      <c r="D139" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E139" t="s">
+      <c r="E139" s="2" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="140" spans="1:5">
-      <c r="A140" t="s">
+      <c r="A140" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="B140" s="1" t="s">
+      <c r="B140" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="C140" t="s">
+      <c r="C140" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="D140" t="s">
+      <c r="D140" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="E140" t="s">
+      <c r="E140" s="2" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="141" spans="1:5">
-      <c r="A141" t="s">
+      <c r="A141" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="B141" s="1" t="s">
+      <c r="B141" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="C141" t="s">
+      <c r="C141" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="D141" t="s">
+      <c r="D141" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E141" t="s">
+      <c r="E141" s="2" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="142" spans="1:5">
-      <c r="A142" t="s">
+      <c r="A142" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="B142" s="1" t="s">
+      <c r="B142" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="C142" t="s">
+      <c r="C142" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="D142" t="s">
-        <v>14</v>
-      </c>
-      <c r="E142" t="s">
+      <c r="D142" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E142" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="143" spans="1:5">
-      <c r="A143" t="s">
+      <c r="A143" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="B143" s="1" t="s">
+      <c r="B143" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="C143" t="s">
+      <c r="C143" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="D143" t="s">
+      <c r="D143" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E143" t="s">
+      <c r="E143" s="2" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="144" spans="1:5">
-      <c r="A144" t="s">
+      <c r="A144" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="B144" s="1" t="s">
+      <c r="B144" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="C144" t="s">
+      <c r="C144" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="D144" t="s">
+      <c r="D144" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E144" t="s">
+      <c r="E144" s="2" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="145" spans="1:5">
-      <c r="A145" t="s">
+      <c r="A145" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="B145" s="1" t="s">
+      <c r="B145" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="C145" t="s">
+      <c r="C145" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="D145" t="s">
+      <c r="D145" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="E145" t="s">
+      <c r="E145" s="2" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="146" spans="1:5">
-      <c r="A146" t="s">
+      <c r="A146" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="B146" s="1" t="s">
+      <c r="B146" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="C146" t="s">
+      <c r="C146" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="D146" t="s">
+      <c r="D146" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="E146" t="s">
+      <c r="E146" s="2" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="147" spans="1:5">
-      <c r="A147" t="s">
+      <c r="A147" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="B147" s="1" t="s">
+      <c r="B147" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="C147" t="s">
+      <c r="C147" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="D147" t="s">
+      <c r="D147" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="E147" t="s">
+      <c r="E147" s="2" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="148" spans="1:5">
-      <c r="A148" t="s">
+      <c r="A148" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="B148" s="1" t="s">
+      <c r="B148" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="C148" t="s">
+      <c r="C148" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="D148" t="s">
-        <v>14</v>
-      </c>
-      <c r="E148" t="s">
+      <c r="D148" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E148" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="149" spans="1:5">
-      <c r="A149" t="s">
+      <c r="A149" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="B149" s="1" t="s">
+      <c r="B149" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="C149" t="s">
+      <c r="C149" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="D149" t="s">
+      <c r="D149" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E149" t="s">
+      <c r="E149" s="2" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="150" spans="1:5">
-      <c r="A150" t="s">
+      <c r="A150" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="B150" s="1" t="s">
+      <c r="B150" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="C150" t="s">
+      <c r="C150" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="D150" t="s">
-        <v>8</v>
-      </c>
-      <c r="E150" t="s">
+      <c r="D150" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E150" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="151" spans="1:5">
-      <c r="A151" t="s">
+      <c r="A151" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="B151" s="1" t="s">
+      <c r="B151" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="C151" t="s">
+      <c r="C151" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="D151" t="s">
+      <c r="D151" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E151" t="s">
+      <c r="E151" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="152" spans="1:5">
-      <c r="A152" t="s">
+      <c r="A152" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="B152" s="1" t="s">
+      <c r="B152" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="C152" t="s">
+      <c r="C152" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="D152" t="s">
+      <c r="D152" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E152" t="s">
+      <c r="E152" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="153" spans="1:5">
-      <c r="A153" t="s">
+      <c r="A153" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="B153" s="1" t="s">
+      <c r="B153" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="C153" t="s">
+      <c r="C153" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="D153" t="s">
+      <c r="D153" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="E153" t="s">
+      <c r="E153" s="2" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="154" spans="1:5">
-      <c r="A154" t="s">
+      <c r="A154" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="B154" s="1" t="s">
+      <c r="B154" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="C154" t="s">
+      <c r="C154" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="D154" t="s">
-        <v>8</v>
-      </c>
-      <c r="E154" t="s">
+      <c r="D154" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E154" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="155" spans="1:5">
-      <c r="A155" t="s">
+      <c r="A155" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="B155" s="1" t="s">
+      <c r="B155" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="C155" t="s">
+      <c r="C155" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="D155" t="s">
+      <c r="D155" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E155" t="s">
+      <c r="E155" s="2" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="156" spans="1:5">
-      <c r="A156" t="s">
+      <c r="A156" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="B156" s="1" t="s">
+      <c r="B156" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="C156" t="s">
+      <c r="C156" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="D156" t="s">
+      <c r="D156" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E156" t="s">
+      <c r="E156" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="157" spans="1:5">
-      <c r="A157" t="s">
+      <c r="A157" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="B157" s="1" t="s">
+      <c r="B157" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="C157" t="s">
+      <c r="C157" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="D157" t="s">
-        <v>14</v>
-      </c>
-      <c r="E157" t="s">
+      <c r="D157" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E157" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="158" spans="1:5">
-      <c r="A158" t="s">
+      <c r="A158" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="B158" s="1" t="s">
+      <c r="B158" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="C158" t="s">
+      <c r="C158" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="D158" t="s">
+      <c r="D158" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E158" t="s">
+      <c r="E158" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="159" spans="1:5">
-      <c r="A159" t="s">
+      <c r="A159" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="B159" s="1" t="s">
+      <c r="B159" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="C159" t="s">
+      <c r="C159" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="D159" t="s">
+      <c r="D159" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E159" t="s">
+      <c r="E159" s="2" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="160" spans="1:5">
-      <c r="A160" t="s">
+      <c r="A160" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="B160" s="1" t="s">
+      <c r="B160" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="C160" t="s">
+      <c r="C160" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="D160" t="s">
-        <v>14</v>
-      </c>
-      <c r="E160" t="s">
+      <c r="D160" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E160" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="161" spans="1:5">
-      <c r="A161" t="s">
+      <c r="A161" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="B161" s="1" t="s">
+      <c r="B161" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="C161" t="s">
+      <c r="C161" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="D161" t="s">
+      <c r="D161" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E161" t="s">
+      <c r="E161" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="162" spans="1:5">
-      <c r="A162" t="s">
+      <c r="A162" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="B162" s="1" t="s">
+      <c r="B162" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="C162" t="s">
+      <c r="C162" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="D162" t="s">
+      <c r="D162" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E162" t="s">
+      <c r="E162" s="2" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="163" spans="1:5">
-      <c r="A163" t="s">
+      <c r="A163" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="B163" s="1" t="s">
+      <c r="B163" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="C163" t="s">
+      <c r="C163" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="D163" t="s">
+      <c r="D163" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E163" t="s">
+      <c r="E163" s="2" t="s">
         <v>22</v>
       </c>
     </row>

--- a/BusinessRisks.xlsx
+++ b/BusinessRisks.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="347">
   <si>
     <t>COUNTRY</t>
   </si>
@@ -31,6 +31,21 @@
     <t>BUSINESS CLIMATE ASSESSMENT</t>
   </si>
   <si>
+    <t>['Bahrain', 'Iran, Islamic Republic of', 'Iraq', 'Israel', 'Jordan', 'Kuwait', 'Lebanon', 'Oman', 'Palestinian Territories', 'Qatar', 'Saudi Arabia', 'Syrian Arab Republic', 'United Arab Emirates', 'Yemen']</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Middle-East</t>
+  </si>
+  <si>
+    <t>['C', 'E', 'E', 'A2', 'C', 'A3', 'D', 'B', 'D', 'A4', 'B', 'E', 'A3', 'E']</t>
+  </si>
+  <si>
+    <t>['A4', 'D', 'E', 'A2', 'A4', 'A3', 'C', 'A4', 'D', 'A3', 'B', 'E', 'A2', 'E']</t>
+  </si>
+  <si>
     <t>Algeria</t>
   </si>
   <si>
@@ -962,9 +977,6 @@
   </si>
   <si>
     <t>https://www.coface.com//Economic-Studies-and-Country-Risks/Bahrain</t>
-  </si>
-  <si>
-    <t>Middle-East</t>
   </si>
   <si>
     <t>Iran, Islamic Republic of</t>
@@ -1405,7 +1417,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E163"/>
+  <dimension ref="A1:E164"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1448,650 +1460,650 @@
         <v>8</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>67</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>17</v>
+        <v>72</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>22</v>
@@ -2099,2259 +2111,2276 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>104</v>
+        <v>12</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C50" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>104</v>
-      </c>
       <c r="D50" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>113</v>
+        <v>19</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>114</v>
+        <v>22</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>17</v>
+        <v>118</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>67</v>
+        <v>119</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>17</v>
+        <v>72</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>67</v>
+        <v>22</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>22</v>
+        <v>72</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="2" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>113</v>
+        <v>19</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>114</v>
+        <v>22</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="2" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>17</v>
+        <v>118</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>67</v>
+        <v>119</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="2" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>22</v>
+        <v>72</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="2" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>161</v>
+        <v>109</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>113</v>
+        <v>27</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>114</v>
+        <v>27</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="2" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>8</v>
+        <v>118</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>8</v>
+        <v>119</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C77" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="B77" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>161</v>
-      </c>
       <c r="D77" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="2" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>114</v>
+        <v>19</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>14</v>
+        <v>119</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="2" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>113</v>
+        <v>22</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>114</v>
+        <v>22</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="2" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>11</v>
+        <v>118</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>11</v>
+        <v>119</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="2" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>67</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="2" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>8</v>
+        <v>72</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>8</v>
+        <v>72</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="2" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="2" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>113</v>
+        <v>13</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>114</v>
+        <v>19</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="2" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>22</v>
+        <v>118</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>22</v>
+        <v>119</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="2" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="2" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="2" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="2" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>113</v>
+        <v>22</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>114</v>
+        <v>19</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="2" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="2" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>8</v>
+        <v>118</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>14</v>
+        <v>119</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="2" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>113</v>
+        <v>13</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>114</v>
+        <v>19</v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="2" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>17</v>
+        <v>118</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>67</v>
+        <v>119</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="2" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>8</v>
+        <v>72</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="2" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="2" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>216</v>
+        <v>166</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="2" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C104" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="B104" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>216</v>
-      </c>
       <c r="D104" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="2" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="2" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="2" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="2" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="2" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="2" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="2" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="2" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>113</v>
+        <v>13</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>114</v>
+        <v>13</v>
       </c>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="2" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>8</v>
+        <v>118</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>14</v>
+        <v>119</v>
       </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C115" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="B115" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>239</v>
-      </c>
       <c r="D115" s="2" t="s">
-        <v>113</v>
+        <v>13</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>114</v>
+        <v>19</v>
       </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="2" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>8</v>
+        <v>118</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>14</v>
+        <v>119</v>
       </c>
     </row>
     <row r="117" spans="1:5">
       <c r="A117" s="2" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>67</v>
+        <v>19</v>
       </c>
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="2" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>113</v>
+        <v>72</v>
       </c>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="2" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>67</v>
+        <v>118</v>
       </c>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="2" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>113</v>
+        <v>72</v>
       </c>
     </row>
     <row r="121" spans="1:5">
       <c r="A121" s="2" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>113</v>
+        <v>72</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="122" spans="1:5">
       <c r="A122" s="2" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
     </row>
     <row r="123" spans="1:5">
       <c r="A123" s="2" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
     </row>
     <row r="124" spans="1:5">
       <c r="A124" s="2" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
     </row>
     <row r="125" spans="1:5">
       <c r="A125" s="2" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
     </row>
     <row r="126" spans="1:5">
       <c r="A126" s="2" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>14</v>
+        <v>118</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>67</v>
+        <v>119</v>
       </c>
     </row>
     <row r="127" spans="1:5">
       <c r="A127" s="2" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="128" spans="1:5">
       <c r="A128" s="2" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>114</v>
+        <v>72</v>
       </c>
     </row>
     <row r="129" spans="1:5">
       <c r="A129" s="2" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
     </row>
     <row r="130" spans="1:5">
       <c r="A130" s="2" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
     </row>
     <row r="131" spans="1:5">
       <c r="A131" s="2" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
     </row>
     <row r="132" spans="1:5">
       <c r="A132" s="2" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
     </row>
     <row r="133" spans="1:5">
       <c r="A133" s="2" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>114</v>
+        <v>72</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="134" spans="1:5">
       <c r="A134" s="2" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>67</v>
+        <v>119</v>
       </c>
     </row>
     <row r="135" spans="1:5">
       <c r="A135" s="2" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>14</v>
+        <v>118</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>17</v>
+        <v>72</v>
       </c>
     </row>
     <row r="136" spans="1:5">
       <c r="A136" s="2" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>114</v>
+        <v>19</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>114</v>
+        <v>22</v>
       </c>
     </row>
     <row r="137" spans="1:5">
       <c r="A137" s="2" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>14</v>
+        <v>119</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>17</v>
+        <v>119</v>
       </c>
     </row>
     <row r="138" spans="1:5">
       <c r="A138" s="2" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>114</v>
+        <v>19</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>114</v>
+        <v>22</v>
       </c>
     </row>
     <row r="139" spans="1:5">
       <c r="A139" s="2" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>67</v>
+        <v>119</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
     </row>
     <row r="140" spans="1:5">
       <c r="A140" s="2" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>113</v>
+        <v>72</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
     </row>
     <row r="141" spans="1:5">
       <c r="A141" s="2" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>17</v>
+        <v>118</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>67</v>
+        <v>118</v>
       </c>
     </row>
     <row r="142" spans="1:5">
       <c r="A142" s="2" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>17</v>
+        <v>72</v>
       </c>
     </row>
     <row r="143" spans="1:5">
       <c r="A143" s="2" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>113</v>
+        <v>22</v>
       </c>
     </row>
     <row r="144" spans="1:5">
       <c r="A144" s="2" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
     </row>
     <row r="145" spans="1:5">
       <c r="A145" s="2" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>113</v>
+        <v>72</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="146" spans="1:5">
       <c r="A146" s="2" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
     </row>
     <row r="147" spans="1:5">
       <c r="A147" s="2" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
     </row>
     <row r="148" spans="1:5">
       <c r="A148" s="2" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>14</v>
+        <v>119</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>17</v>
+        <v>119</v>
       </c>
     </row>
     <row r="149" spans="1:5">
       <c r="A149" s="2" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>114</v>
+        <v>22</v>
       </c>
     </row>
     <row r="150" spans="1:5">
       <c r="A150" s="2" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>316</v>
+        <v>244</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>8</v>
+        <v>72</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>17</v>
+        <v>119</v>
       </c>
     </row>
     <row r="151" spans="1:5">
       <c r="A151" s="2" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>316</v>
+        <v>7</v>
       </c>
       <c r="D151" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E151" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="E151" s="2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="152" spans="1:5">
       <c r="A152" s="2" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>316</v>
+        <v>7</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="153" spans="1:5">
       <c r="A153" s="2" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>316</v>
+        <v>7</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>113</v>
+        <v>27</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>113</v>
+        <v>27</v>
       </c>
     </row>
     <row r="154" spans="1:5">
       <c r="A154" s="2" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>316</v>
+        <v>7</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>8</v>
+        <v>118</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>17</v>
+        <v>118</v>
       </c>
     </row>
     <row r="155" spans="1:5">
       <c r="A155" s="2" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>316</v>
+        <v>7</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>67</v>
+        <v>22</v>
       </c>
     </row>
     <row r="156" spans="1:5">
       <c r="A156" s="2" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>316</v>
+        <v>7</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>11</v>
+        <v>72</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>8</v>
+        <v>72</v>
       </c>
     </row>
     <row r="157" spans="1:5">
       <c r="A157" s="2" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>316</v>
+        <v>7</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="158" spans="1:5">
       <c r="A158" s="2" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>316</v>
+        <v>7</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="159" spans="1:5">
       <c r="A159" s="2" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>316</v>
+        <v>7</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>67</v>
+        <v>16</v>
       </c>
     </row>
     <row r="160" spans="1:5">
       <c r="A160" s="2" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>316</v>
+        <v>7</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
     </row>
     <row r="161" spans="1:5">
       <c r="A161" s="2" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>316</v>
+        <v>7</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="162" spans="1:5">
       <c r="A162" s="2" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>316</v>
+        <v>7</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>113</v>
+        <v>27</v>
       </c>
     </row>
     <row r="163" spans="1:5">
       <c r="A163" s="2" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>316</v>
+        <v>7</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>22</v>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5">
+      <c r="A164" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="B4" r:id="rId3"/>
-    <hyperlink ref="B5" r:id="rId4"/>
-    <hyperlink ref="B6" r:id="rId5"/>
-    <hyperlink ref="B7" r:id="rId6"/>
-    <hyperlink ref="B8" r:id="rId7"/>
-    <hyperlink ref="B9" r:id="rId8"/>
-    <hyperlink ref="B10" r:id="rId9"/>
-    <hyperlink ref="B11" r:id="rId10"/>
-    <hyperlink ref="B12" r:id="rId11"/>
-    <hyperlink ref="B13" r:id="rId12"/>
-    <hyperlink ref="B14" r:id="rId13"/>
-    <hyperlink ref="B15" r:id="rId14"/>
-    <hyperlink ref="B16" r:id="rId15"/>
-    <hyperlink ref="B17" r:id="rId16"/>
-    <hyperlink ref="B18" r:id="rId17"/>
-    <hyperlink ref="B19" r:id="rId18"/>
-    <hyperlink ref="B20" r:id="rId19"/>
-    <hyperlink ref="B21" r:id="rId20"/>
-    <hyperlink ref="B22" r:id="rId21"/>
-    <hyperlink ref="B23" r:id="rId22"/>
-    <hyperlink ref="B24" r:id="rId23"/>
-    <hyperlink ref="B25" r:id="rId24"/>
-    <hyperlink ref="B26" r:id="rId25"/>
-    <hyperlink ref="B27" r:id="rId26"/>
-    <hyperlink ref="B28" r:id="rId27"/>
-    <hyperlink ref="B29" r:id="rId28"/>
-    <hyperlink ref="B30" r:id="rId29"/>
-    <hyperlink ref="B31" r:id="rId30"/>
-    <hyperlink ref="B32" r:id="rId31"/>
-    <hyperlink ref="B33" r:id="rId32"/>
-    <hyperlink ref="B34" r:id="rId33"/>
-    <hyperlink ref="B35" r:id="rId34"/>
-    <hyperlink ref="B36" r:id="rId35"/>
-    <hyperlink ref="B37" r:id="rId36"/>
-    <hyperlink ref="B38" r:id="rId37"/>
-    <hyperlink ref="B39" r:id="rId38"/>
-    <hyperlink ref="B40" r:id="rId39"/>
-    <hyperlink ref="B41" r:id="rId40"/>
-    <hyperlink ref="B42" r:id="rId41"/>
-    <hyperlink ref="B43" r:id="rId42"/>
-    <hyperlink ref="B44" r:id="rId43"/>
-    <hyperlink ref="B45" r:id="rId44"/>
-    <hyperlink ref="B46" r:id="rId45"/>
-    <hyperlink ref="B47" r:id="rId46"/>
-    <hyperlink ref="B48" r:id="rId47"/>
-    <hyperlink ref="B49" r:id="rId48"/>
-    <hyperlink ref="B50" r:id="rId49"/>
-    <hyperlink ref="B51" r:id="rId50"/>
-    <hyperlink ref="B52" r:id="rId51"/>
-    <hyperlink ref="B53" r:id="rId52"/>
-    <hyperlink ref="B54" r:id="rId53"/>
-    <hyperlink ref="B55" r:id="rId54"/>
-    <hyperlink ref="B56" r:id="rId55"/>
-    <hyperlink ref="B57" r:id="rId56"/>
-    <hyperlink ref="B58" r:id="rId57"/>
-    <hyperlink ref="B59" r:id="rId58"/>
-    <hyperlink ref="B60" r:id="rId59"/>
-    <hyperlink ref="B61" r:id="rId60"/>
-    <hyperlink ref="B62" r:id="rId61"/>
-    <hyperlink ref="B63" r:id="rId62"/>
-    <hyperlink ref="B64" r:id="rId63"/>
-    <hyperlink ref="B65" r:id="rId64"/>
-    <hyperlink ref="B66" r:id="rId65"/>
-    <hyperlink ref="B67" r:id="rId66"/>
-    <hyperlink ref="B68" r:id="rId67"/>
-    <hyperlink ref="B69" r:id="rId68"/>
-    <hyperlink ref="B70" r:id="rId69"/>
-    <hyperlink ref="B71" r:id="rId70"/>
-    <hyperlink ref="B72" r:id="rId71"/>
-    <hyperlink ref="B73" r:id="rId72"/>
-    <hyperlink ref="B74" r:id="rId73"/>
-    <hyperlink ref="B75" r:id="rId74"/>
-    <hyperlink ref="B76" r:id="rId75"/>
-    <hyperlink ref="B77" r:id="rId76"/>
-    <hyperlink ref="B78" r:id="rId77"/>
-    <hyperlink ref="B79" r:id="rId78"/>
-    <hyperlink ref="B80" r:id="rId79"/>
-    <hyperlink ref="B81" r:id="rId80"/>
-    <hyperlink ref="B82" r:id="rId81"/>
-    <hyperlink ref="B83" r:id="rId82"/>
-    <hyperlink ref="B84" r:id="rId83"/>
-    <hyperlink ref="B85" r:id="rId84"/>
-    <hyperlink ref="B86" r:id="rId85"/>
-    <hyperlink ref="B87" r:id="rId86"/>
-    <hyperlink ref="B88" r:id="rId87"/>
-    <hyperlink ref="B89" r:id="rId88"/>
-    <hyperlink ref="B90" r:id="rId89"/>
-    <hyperlink ref="B91" r:id="rId90"/>
-    <hyperlink ref="B92" r:id="rId91"/>
-    <hyperlink ref="B93" r:id="rId92"/>
-    <hyperlink ref="B94" r:id="rId93"/>
-    <hyperlink ref="B95" r:id="rId94"/>
-    <hyperlink ref="B96" r:id="rId95"/>
-    <hyperlink ref="B97" r:id="rId96"/>
-    <hyperlink ref="B98" r:id="rId97"/>
-    <hyperlink ref="B99" r:id="rId98"/>
-    <hyperlink ref="B100" r:id="rId99"/>
-    <hyperlink ref="B101" r:id="rId100"/>
-    <hyperlink ref="B102" r:id="rId101"/>
-    <hyperlink ref="B103" r:id="rId102"/>
-    <hyperlink ref="B104" r:id="rId103"/>
-    <hyperlink ref="B105" r:id="rId104"/>
-    <hyperlink ref="B106" r:id="rId105"/>
-    <hyperlink ref="B107" r:id="rId106"/>
-    <hyperlink ref="B108" r:id="rId107"/>
-    <hyperlink ref="B109" r:id="rId108"/>
-    <hyperlink ref="B110" r:id="rId109"/>
-    <hyperlink ref="B111" r:id="rId110"/>
-    <hyperlink ref="B112" r:id="rId111"/>
-    <hyperlink ref="B113" r:id="rId112"/>
-    <hyperlink ref="B114" r:id="rId113"/>
-    <hyperlink ref="B115" r:id="rId114"/>
-    <hyperlink ref="B116" r:id="rId115"/>
-    <hyperlink ref="B117" r:id="rId116"/>
-    <hyperlink ref="B118" r:id="rId117"/>
-    <hyperlink ref="B119" r:id="rId118"/>
-    <hyperlink ref="B120" r:id="rId119"/>
-    <hyperlink ref="B121" r:id="rId120"/>
-    <hyperlink ref="B122" r:id="rId121"/>
-    <hyperlink ref="B123" r:id="rId122"/>
-    <hyperlink ref="B124" r:id="rId123"/>
-    <hyperlink ref="B125" r:id="rId124"/>
-    <hyperlink ref="B126" r:id="rId125"/>
-    <hyperlink ref="B127" r:id="rId126"/>
-    <hyperlink ref="B128" r:id="rId127"/>
-    <hyperlink ref="B129" r:id="rId128"/>
-    <hyperlink ref="B130" r:id="rId129"/>
-    <hyperlink ref="B131" r:id="rId130"/>
-    <hyperlink ref="B132" r:id="rId131"/>
-    <hyperlink ref="B133" r:id="rId132"/>
-    <hyperlink ref="B134" r:id="rId133"/>
-    <hyperlink ref="B135" r:id="rId134"/>
-    <hyperlink ref="B136" r:id="rId135"/>
-    <hyperlink ref="B137" r:id="rId136"/>
-    <hyperlink ref="B138" r:id="rId137"/>
-    <hyperlink ref="B139" r:id="rId138"/>
-    <hyperlink ref="B140" r:id="rId139"/>
-    <hyperlink ref="B141" r:id="rId140"/>
-    <hyperlink ref="B142" r:id="rId141"/>
-    <hyperlink ref="B143" r:id="rId142"/>
-    <hyperlink ref="B144" r:id="rId143"/>
-    <hyperlink ref="B145" r:id="rId144"/>
-    <hyperlink ref="B146" r:id="rId145"/>
-    <hyperlink ref="B147" r:id="rId146"/>
-    <hyperlink ref="B148" r:id="rId147"/>
-    <hyperlink ref="B149" r:id="rId148"/>
-    <hyperlink ref="B150" r:id="rId149"/>
-    <hyperlink ref="B151" r:id="rId150"/>
-    <hyperlink ref="B152" r:id="rId151"/>
-    <hyperlink ref="B153" r:id="rId152"/>
-    <hyperlink ref="B154" r:id="rId153"/>
-    <hyperlink ref="B155" r:id="rId154"/>
-    <hyperlink ref="B156" r:id="rId155"/>
-    <hyperlink ref="B157" r:id="rId156"/>
-    <hyperlink ref="B158" r:id="rId157"/>
-    <hyperlink ref="B159" r:id="rId158"/>
-    <hyperlink ref="B160" r:id="rId159"/>
-    <hyperlink ref="B161" r:id="rId160"/>
-    <hyperlink ref="B162" r:id="rId161"/>
-    <hyperlink ref="B163" r:id="rId162"/>
+    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="B4" r:id="rId2"/>
+    <hyperlink ref="B5" r:id="rId3"/>
+    <hyperlink ref="B6" r:id="rId4"/>
+    <hyperlink ref="B7" r:id="rId5"/>
+    <hyperlink ref="B8" r:id="rId6"/>
+    <hyperlink ref="B9" r:id="rId7"/>
+    <hyperlink ref="B10" r:id="rId8"/>
+    <hyperlink ref="B11" r:id="rId9"/>
+    <hyperlink ref="B12" r:id="rId10"/>
+    <hyperlink ref="B13" r:id="rId11"/>
+    <hyperlink ref="B14" r:id="rId12"/>
+    <hyperlink ref="B15" r:id="rId13"/>
+    <hyperlink ref="B16" r:id="rId14"/>
+    <hyperlink ref="B17" r:id="rId15"/>
+    <hyperlink ref="B18" r:id="rId16"/>
+    <hyperlink ref="B19" r:id="rId17"/>
+    <hyperlink ref="B20" r:id="rId18"/>
+    <hyperlink ref="B21" r:id="rId19"/>
+    <hyperlink ref="B22" r:id="rId20"/>
+    <hyperlink ref="B23" r:id="rId21"/>
+    <hyperlink ref="B24" r:id="rId22"/>
+    <hyperlink ref="B25" r:id="rId23"/>
+    <hyperlink ref="B26" r:id="rId24"/>
+    <hyperlink ref="B27" r:id="rId25"/>
+    <hyperlink ref="B28" r:id="rId26"/>
+    <hyperlink ref="B29" r:id="rId27"/>
+    <hyperlink ref="B30" r:id="rId28"/>
+    <hyperlink ref="B31" r:id="rId29"/>
+    <hyperlink ref="B32" r:id="rId30"/>
+    <hyperlink ref="B33" r:id="rId31"/>
+    <hyperlink ref="B34" r:id="rId32"/>
+    <hyperlink ref="B35" r:id="rId33"/>
+    <hyperlink ref="B36" r:id="rId34"/>
+    <hyperlink ref="B37" r:id="rId35"/>
+    <hyperlink ref="B38" r:id="rId36"/>
+    <hyperlink ref="B39" r:id="rId37"/>
+    <hyperlink ref="B40" r:id="rId38"/>
+    <hyperlink ref="B41" r:id="rId39"/>
+    <hyperlink ref="B42" r:id="rId40"/>
+    <hyperlink ref="B43" r:id="rId41"/>
+    <hyperlink ref="B44" r:id="rId42"/>
+    <hyperlink ref="B45" r:id="rId43"/>
+    <hyperlink ref="B46" r:id="rId44"/>
+    <hyperlink ref="B47" r:id="rId45"/>
+    <hyperlink ref="B48" r:id="rId46"/>
+    <hyperlink ref="B49" r:id="rId47"/>
+    <hyperlink ref="B50" r:id="rId48"/>
+    <hyperlink ref="B51" r:id="rId49"/>
+    <hyperlink ref="B52" r:id="rId50"/>
+    <hyperlink ref="B53" r:id="rId51"/>
+    <hyperlink ref="B54" r:id="rId52"/>
+    <hyperlink ref="B55" r:id="rId53"/>
+    <hyperlink ref="B56" r:id="rId54"/>
+    <hyperlink ref="B57" r:id="rId55"/>
+    <hyperlink ref="B58" r:id="rId56"/>
+    <hyperlink ref="B59" r:id="rId57"/>
+    <hyperlink ref="B60" r:id="rId58"/>
+    <hyperlink ref="B61" r:id="rId59"/>
+    <hyperlink ref="B62" r:id="rId60"/>
+    <hyperlink ref="B63" r:id="rId61"/>
+    <hyperlink ref="B64" r:id="rId62"/>
+    <hyperlink ref="B65" r:id="rId63"/>
+    <hyperlink ref="B66" r:id="rId64"/>
+    <hyperlink ref="B67" r:id="rId65"/>
+    <hyperlink ref="B68" r:id="rId66"/>
+    <hyperlink ref="B69" r:id="rId67"/>
+    <hyperlink ref="B70" r:id="rId68"/>
+    <hyperlink ref="B71" r:id="rId69"/>
+    <hyperlink ref="B72" r:id="rId70"/>
+    <hyperlink ref="B73" r:id="rId71"/>
+    <hyperlink ref="B74" r:id="rId72"/>
+    <hyperlink ref="B75" r:id="rId73"/>
+    <hyperlink ref="B76" r:id="rId74"/>
+    <hyperlink ref="B77" r:id="rId75"/>
+    <hyperlink ref="B78" r:id="rId76"/>
+    <hyperlink ref="B79" r:id="rId77"/>
+    <hyperlink ref="B80" r:id="rId78"/>
+    <hyperlink ref="B81" r:id="rId79"/>
+    <hyperlink ref="B82" r:id="rId80"/>
+    <hyperlink ref="B83" r:id="rId81"/>
+    <hyperlink ref="B84" r:id="rId82"/>
+    <hyperlink ref="B85" r:id="rId83"/>
+    <hyperlink ref="B86" r:id="rId84"/>
+    <hyperlink ref="B87" r:id="rId85"/>
+    <hyperlink ref="B88" r:id="rId86"/>
+    <hyperlink ref="B89" r:id="rId87"/>
+    <hyperlink ref="B90" r:id="rId88"/>
+    <hyperlink ref="B91" r:id="rId89"/>
+    <hyperlink ref="B92" r:id="rId90"/>
+    <hyperlink ref="B93" r:id="rId91"/>
+    <hyperlink ref="B94" r:id="rId92"/>
+    <hyperlink ref="B95" r:id="rId93"/>
+    <hyperlink ref="B96" r:id="rId94"/>
+    <hyperlink ref="B97" r:id="rId95"/>
+    <hyperlink ref="B98" r:id="rId96"/>
+    <hyperlink ref="B99" r:id="rId97"/>
+    <hyperlink ref="B100" r:id="rId98"/>
+    <hyperlink ref="B101" r:id="rId99"/>
+    <hyperlink ref="B102" r:id="rId100"/>
+    <hyperlink ref="B103" r:id="rId101"/>
+    <hyperlink ref="B104" r:id="rId102"/>
+    <hyperlink ref="B105" r:id="rId103"/>
+    <hyperlink ref="B106" r:id="rId104"/>
+    <hyperlink ref="B107" r:id="rId105"/>
+    <hyperlink ref="B108" r:id="rId106"/>
+    <hyperlink ref="B109" r:id="rId107"/>
+    <hyperlink ref="B110" r:id="rId108"/>
+    <hyperlink ref="B111" r:id="rId109"/>
+    <hyperlink ref="B112" r:id="rId110"/>
+    <hyperlink ref="B113" r:id="rId111"/>
+    <hyperlink ref="B114" r:id="rId112"/>
+    <hyperlink ref="B115" r:id="rId113"/>
+    <hyperlink ref="B116" r:id="rId114"/>
+    <hyperlink ref="B117" r:id="rId115"/>
+    <hyperlink ref="B118" r:id="rId116"/>
+    <hyperlink ref="B119" r:id="rId117"/>
+    <hyperlink ref="B120" r:id="rId118"/>
+    <hyperlink ref="B121" r:id="rId119"/>
+    <hyperlink ref="B122" r:id="rId120"/>
+    <hyperlink ref="B123" r:id="rId121"/>
+    <hyperlink ref="B124" r:id="rId122"/>
+    <hyperlink ref="B125" r:id="rId123"/>
+    <hyperlink ref="B126" r:id="rId124"/>
+    <hyperlink ref="B127" r:id="rId125"/>
+    <hyperlink ref="B128" r:id="rId126"/>
+    <hyperlink ref="B129" r:id="rId127"/>
+    <hyperlink ref="B130" r:id="rId128"/>
+    <hyperlink ref="B131" r:id="rId129"/>
+    <hyperlink ref="B132" r:id="rId130"/>
+    <hyperlink ref="B133" r:id="rId131"/>
+    <hyperlink ref="B134" r:id="rId132"/>
+    <hyperlink ref="B135" r:id="rId133"/>
+    <hyperlink ref="B136" r:id="rId134"/>
+    <hyperlink ref="B137" r:id="rId135"/>
+    <hyperlink ref="B138" r:id="rId136"/>
+    <hyperlink ref="B139" r:id="rId137"/>
+    <hyperlink ref="B140" r:id="rId138"/>
+    <hyperlink ref="B141" r:id="rId139"/>
+    <hyperlink ref="B142" r:id="rId140"/>
+    <hyperlink ref="B143" r:id="rId141"/>
+    <hyperlink ref="B144" r:id="rId142"/>
+    <hyperlink ref="B145" r:id="rId143"/>
+    <hyperlink ref="B146" r:id="rId144"/>
+    <hyperlink ref="B147" r:id="rId145"/>
+    <hyperlink ref="B148" r:id="rId146"/>
+    <hyperlink ref="B149" r:id="rId147"/>
+    <hyperlink ref="B150" r:id="rId148"/>
+    <hyperlink ref="B151" r:id="rId149"/>
+    <hyperlink ref="B152" r:id="rId150"/>
+    <hyperlink ref="B153" r:id="rId151"/>
+    <hyperlink ref="B154" r:id="rId152"/>
+    <hyperlink ref="B155" r:id="rId153"/>
+    <hyperlink ref="B156" r:id="rId154"/>
+    <hyperlink ref="B157" r:id="rId155"/>
+    <hyperlink ref="B158" r:id="rId156"/>
+    <hyperlink ref="B159" r:id="rId157"/>
+    <hyperlink ref="B160" r:id="rId158"/>
+    <hyperlink ref="B161" r:id="rId159"/>
+    <hyperlink ref="B162" r:id="rId160"/>
+    <hyperlink ref="B163" r:id="rId161"/>
+    <hyperlink ref="B164" r:id="rId162"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
